--- a/VersionRecords/Version 3.4.3/版本Bug和特性计划及评审表v3.4.3_马丁组.xlsx
+++ b/VersionRecords/Version 3.4.3/版本Bug和特性计划及评审表v3.4.3_马丁组.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -204,9 +204,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>已预定房源可显示信息和查看预订单</t>
-  </si>
-  <si>
     <t>调整信息页出菜单方式，保证信息页不被覆盖（参照老房态图）</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>“直接发起签约”按钮，文字改为“发起在线签约”</t>
   </si>
   <si>
-    <t>分散式合租房源，新增“编辑整套房源”操作按钮（即编辑合租房源）；将现有“编辑房源”操作按钮文字，调整为“编辑房间”</t>
-  </si>
-  <si>
     <t>新房态图的备注字段，需换行显示（20个字符后换行）</t>
   </si>
   <si>
@@ -253,6 +247,26 @@
   </si>
   <si>
     <t>张贤翠，韩淑芳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号个人中心点击跳转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bugfixs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -400,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -532,19 +546,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +697,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,21 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1076,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T214"/>
+  <dimension ref="A1:T212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1170,14 +1168,14 @@
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="43" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>27</v>
@@ -1193,7 +1191,7 @@
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>47</v>
@@ -1201,12 +1199,20 @@
       <c r="L2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="M2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42593</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="R2" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
@@ -1214,14 +1220,14 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>27</v>
@@ -1237,7 +1243,7 @@
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>47</v>
@@ -1250,7 +1256,9 @@
       <c r="O3" s="14"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
+      <c r="R3" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
@@ -1258,14 +1266,14 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>27</v>
@@ -1281,7 +1289,7 @@
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>47</v>
@@ -1289,12 +1297,20 @@
       <c r="L4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="M4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42593</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="R4" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
@@ -1302,14 +1318,14 @@
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="43" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>27</v>
@@ -1325,7 +1341,7 @@
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>47</v>
@@ -1333,12 +1349,20 @@
       <c r="L5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="M5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42592</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
+      <c r="R5" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
@@ -1346,14 +1370,14 @@
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>27</v>
@@ -1369,7 +1393,7 @@
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>47</v>
@@ -1377,12 +1401,20 @@
       <c r="L6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="M6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="13">
+        <v>42592</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
+      <c r="R6" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
     </row>
@@ -1390,14 +1422,14 @@
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="44" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>27</v>
@@ -1413,7 +1445,7 @@
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>47</v>
@@ -1421,12 +1453,20 @@
       <c r="L7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="M7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42592</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
+      <c r="R7" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="S7" s="18"/>
       <c r="T7" s="10"/>
     </row>
@@ -1434,14 +1474,14 @@
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="45" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>27</v>
@@ -1457,7 +1497,7 @@
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>47</v>
@@ -1465,12 +1505,20 @@
       <c r="L8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="M8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42592</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="R8" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
@@ -1478,14 +1526,14 @@
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>27</v>
@@ -1501,7 +1549,7 @@
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>47</v>
@@ -1509,12 +1557,20 @@
       <c r="L9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="M9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42592</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="R9" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>
@@ -1522,14 +1578,14 @@
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="45" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>27</v>
@@ -1545,7 +1601,7 @@
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>47</v>
@@ -1553,12 +1609,20 @@
       <c r="L10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="M10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42592</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="R10" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
@@ -1566,14 +1630,14 @@
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="46" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>27</v>
@@ -1589,7 +1653,7 @@
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>47</v>
@@ -1597,43 +1661,51 @@
       <c r="L11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
+      <c r="M11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="13">
+        <v>42592</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>59</v>
+      <c r="B12" s="30" t="s">
+        <v>64</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="13">
-        <v>42584</v>
+        <v>42585</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="13">
-        <v>42584</v>
+        <v>42585</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>47</v>
@@ -1644,47 +1716,27 @@
       <c r="M12" s="14"/>
       <c r="N12" s="13"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="13">
-        <v>42584</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="13">
-        <v>42584</v>
-      </c>
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="21"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="14"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>
@@ -1694,9 +1746,9 @@
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="21"/>
-      <c r="B14" s="30"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1716,9 +1768,9 @@
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="21"/>
-      <c r="B15" s="30"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1943,7 +1995,7 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="13"/>
       <c r="I25" s="12"/>
       <c r="J25" s="14"/>
@@ -1965,7 +2017,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="13"/>
       <c r="I26" s="12"/>
       <c r="J26" s="14"/>
@@ -2009,7 +2061,7 @@
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="12"/>
       <c r="J28" s="14"/>
@@ -2031,7 +2083,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
       <c r="J29" s="14"/>
@@ -2597,92 +2649,90 @@
       <c r="T54" s="10"/>
     </row>
     <row r="55" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="21"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="12"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="14"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="17"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="18"/>
+      <c r="S55" s="17"/>
       <c r="T55" s="10"/>
     </row>
     <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="21"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="14"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="17"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="18"/>
+      <c r="S56" s="17"/>
       <c r="T56" s="10"/>
     </row>
-    <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="9"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="9"/>
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="7"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="17"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="4"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="10"/>
-    </row>
-    <row r="58" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="9"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="9"/>
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="7"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="17"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="4"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="10"/>
+      <c r="S58" s="4"/>
     </row>
     <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
@@ -3802,7 +3852,7 @@
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
       <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
+      <c r="E112" s="7"/>
       <c r="F112" s="5"/>
       <c r="G112" s="7"/>
       <c r="H112" s="5"/>
@@ -3823,7 +3873,7 @@
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
       <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
+      <c r="E113" s="7"/>
       <c r="F113" s="5"/>
       <c r="G113" s="7"/>
       <c r="H113" s="5"/>
@@ -3923,11 +3973,11 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
-      <c r="D118" s="12"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="5"/>
       <c r="G118" s="7"/>
@@ -3944,11 +3994,11 @@
       <c r="R118" s="7"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
-      <c r="D119" s="12"/>
+      <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="5"/>
       <c r="G119" s="7"/>
@@ -5199,9 +5249,6 @@
       <c r="M178" s="7"/>
       <c r="N178" s="5"/>
       <c r="O178" s="4"/>
-      <c r="P178" s="7"/>
-      <c r="Q178" s="7"/>
-      <c r="R178" s="7"/>
       <c r="S178" s="4"/>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.15">
@@ -5220,9 +5267,6 @@
       <c r="M179" s="7"/>
       <c r="N179" s="5"/>
       <c r="O179" s="4"/>
-      <c r="P179" s="7"/>
-      <c r="Q179" s="7"/>
-      <c r="R179" s="7"/>
       <c r="S179" s="4"/>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.15">
@@ -5818,42 +5862,6 @@
       <c r="N212" s="5"/>
       <c r="O212" s="4"/>
       <c r="S212" s="4"/>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A213" s="7"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="6"/>
-      <c r="J213" s="7"/>
-      <c r="K213" s="7"/>
-      <c r="L213" s="7"/>
-      <c r="M213" s="7"/>
-      <c r="N213" s="5"/>
-      <c r="O213" s="4"/>
-      <c r="S213" s="4"/>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A214" s="7"/>
-      <c r="B214" s="4"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="7"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="6"/>
-      <c r="J214" s="7"/>
-      <c r="K214" s="7"/>
-      <c r="L214" s="7"/>
-      <c r="M214" s="7"/>
-      <c r="N214" s="5"/>
-      <c r="O214" s="4"/>
-      <c r="S214" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5878,28 +5886,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
@@ -7153,36 +7161,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">

--- a/VersionRecords/Version 3.4.3/版本Bug和特性计划及评审表v3.4.3_马丁组.xlsx
+++ b/VersionRecords/Version 3.4.3/版本Bug和特性计划及评审表v3.4.3_马丁组.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:T212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1251,9 +1251,15 @@
       <c r="L3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="M3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42593</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
